--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCAE20-4F31-4AB2-B2FC-E8F38F81B089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8000E4D-7DE8-4EDD-B51C-222DCDF0A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -142,9 +142,6 @@
     <t>p0028</t>
   </si>
   <si>
-    <t>Achse BB</t>
-  </si>
-  <si>
     <t>Solarpanel 1</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>p0001_d</t>
   </si>
   <si>
-    <t>p0001_d_1</t>
-  </si>
-  <si>
     <t>Laserschnitt</t>
   </si>
   <si>
@@ -302,6 +296,9 @@
   </si>
   <si>
     <t>p0011_L</t>
+  </si>
+  <si>
+    <t>Achse</t>
   </si>
 </sst>
 </file>
@@ -716,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,55 +733,50 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -793,52 +785,52 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
       </c>
       <c r="I15" s="7"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -848,34 +840,34 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J23" s="5"/>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J24" s="3"/>
       <c r="K24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J25" s="6"/>
       <c r="K25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -886,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
         <v>0</v>
@@ -904,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
@@ -922,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
@@ -940,13 +932,13 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J33" s="3"/>
     </row>
@@ -958,10 +950,10 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" s="3"/>
     </row>
@@ -973,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J35" s="3"/>
     </row>
@@ -991,22 +983,22 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -1018,13 +1010,13 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -1036,13 +1028,13 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -1051,16 +1043,16 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -1069,13 +1061,13 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -1084,28 +1076,28 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -1114,40 +1106,40 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s">
         <v>20</v>
@@ -1159,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -1171,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -1183,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
         <v>23</v>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8000E4D-7DE8-4EDD-B51C-222DCDF0A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9435508D-D605-4B64-89C9-3E45D0F516DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Achse</t>
+  </si>
+  <si>
+    <t>p0012_D_L</t>
+  </si>
+  <si>
+    <t>p0012_D_K</t>
+  </si>
+  <si>
+    <t>Auflageblech</t>
+  </si>
+  <si>
+    <t>p0018_D_L</t>
   </si>
 </sst>
 </file>
@@ -385,12 +397,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -713,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +789,10 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -793,8 +804,8 @@
       <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -806,8 +817,8 @@
       <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -819,8 +830,8 @@
       <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -832,13 +843,13 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="5"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2" t="s">
         <v>72</v>
       </c>
@@ -848,10 +859,10 @@
       <c r="K24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="6"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="2" t="s">
         <v>73</v>
       </c>
@@ -866,7 +877,7 @@
       <c r="H28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>67</v>
       </c>
     </row>
@@ -886,7 +897,7 @@
       <c r="I30" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -904,7 +915,7 @@
       <c r="I31" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="6"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -922,7 +933,7 @@
       <c r="I32" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -931,6 +942,9 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" t="s">
         <v>77</v>
       </c>
@@ -949,6 +963,9 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
       <c r="F34" t="s">
         <v>78</v>
       </c>
@@ -982,6 +999,9 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
       <c r="F36" t="s">
         <v>80</v>
       </c>
@@ -997,6 +1017,9 @@
       <c r="C37" t="s">
         <v>14</v>
       </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
       <c r="F37" t="s">
         <v>81</v>
       </c>
@@ -1006,7 +1029,7 @@
       <c r="I37" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="6"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1015,6 +1038,9 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" t="s">
         <v>82</v>
       </c>
@@ -1033,13 +1059,16 @@
       <c r="C39" t="s">
         <v>16</v>
       </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -1048,6 +1077,9 @@
       <c r="C40" t="s">
         <v>17</v>
       </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
       <c r="F40" t="s">
         <v>84</v>
       </c>
@@ -1066,13 +1098,16 @@
       <c r="C41" t="s">
         <v>18</v>
       </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
       <c r="F41" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -1081,6 +1116,9 @@
       <c r="C42" t="s">
         <v>19</v>
       </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" t="s">
         <v>37</v>
       </c>
@@ -1100,9 +1138,9 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -1111,11 +1149,8 @@
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="H44" t="s">
-        <v>39</v>
-      </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J44" s="3"/>
     </row>
@@ -1126,10 +1161,7 @@
       <c r="C45" t="s">
         <v>22</v>
       </c>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1139,64 +1171,87 @@
         <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
       <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="H47" t="s">
-        <v>41</v>
+      <c r="D47" t="s">
+        <v>53</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>28</v>
       </c>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="5"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>29</v>
       </c>
+      <c r="H52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" t="s">

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9435508D-D605-4B64-89C9-3E45D0F516DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77948DEA-7FD0-4BA7-823A-1A832FD552F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -85,9 +85,6 @@
     <t>p0009</t>
   </si>
   <si>
-    <t>p0010</t>
-  </si>
-  <si>
     <t>p0011</t>
   </si>
   <si>
@@ -142,12 +139,6 @@
     <t>p0028</t>
   </si>
   <si>
-    <t>Solarpanel 1</t>
-  </si>
-  <si>
-    <t>Solarpanel 2</t>
-  </si>
-  <si>
     <t>Kurze versteifung</t>
   </si>
   <si>
@@ -311,6 +302,57 @@
   </si>
   <si>
     <t>p0018_D_L</t>
+  </si>
+  <si>
+    <t>Schenkelfeder Links offen</t>
+  </si>
+  <si>
+    <t>Schenkelfeder Rechts offen</t>
+  </si>
+  <si>
+    <t>Unterbau Schweißen SB</t>
+  </si>
+  <si>
+    <t>Unterbau Schweißen BB</t>
+  </si>
+  <si>
+    <t>Unterbau + Anbauteile SB</t>
+  </si>
+  <si>
+    <t>Unterbau + Anbauteile BB</t>
+  </si>
+  <si>
+    <t>Lagerung SB aussen</t>
+  </si>
+  <si>
+    <t>Lagerung SB innen</t>
+  </si>
+  <si>
+    <t>Lagerung BB aussen</t>
+  </si>
+  <si>
+    <t>Lagerung BB innen</t>
+  </si>
+  <si>
+    <t>Solarpanel</t>
+  </si>
+  <si>
+    <t>Schiff</t>
+  </si>
+  <si>
+    <t>alle Anbauteile SB</t>
+  </si>
+  <si>
+    <t>alle Anbauteile BB</t>
+  </si>
+  <si>
+    <t>Feder Links zu</t>
+  </si>
+  <si>
+    <t>Feder Rechts zu</t>
+  </si>
+  <si>
+    <t>Alles</t>
   </si>
 </sst>
 </file>
@@ -724,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,8 +775,10 @@
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -744,50 +788,50 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -796,52 +840,52 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="6"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
       </c>
       <c r="I16" s="6"/>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I17" s="6"/>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -849,73 +893,91 @@
       <c r="L18" s="6"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="4"/>
-      <c r="K23" s="2" t="s">
-        <v>72</v>
+      <c r="K23" s="4"/>
+      <c r="L23" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="3"/>
-      <c r="K24" s="2" t="s">
-        <v>74</v>
+      <c r="K24" s="3"/>
+      <c r="L24" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="5"/>
-      <c r="K25" s="2" t="s">
-        <v>73</v>
+      <c r="K25" s="5"/>
+      <c r="L25" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
       <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>95</v>
+      </c>
       <c r="F31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
         <v>1</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -924,358 +986,440 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
       <c r="F32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
         <v>8</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
-        <v>53</v>
+      <c r="D33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
         <v>9</v>
       </c>
-      <c r="I33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>53</v>
+      <c r="D34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
       <c r="F35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
-        <v>53</v>
+      <c r="D36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>69</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
-        <v>53</v>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
         <v>7</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
-        <v>53</v>
+      <c r="D38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
       </c>
       <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="3"/>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s">
         <v>82</v>
       </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="G41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>37</v>
       </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="I40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
         <v>39</v>
       </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" t="s">
         <v>40</v>
       </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" t="s">
-        <v>89</v>
-      </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s">
-        <v>43</v>
-      </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="H52" t="s">
-        <v>90</v>
-      </c>
-      <c r="I52" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77948DEA-7FD0-4BA7-823A-1A832FD552F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B8C1FB-2A8E-4637-A911-BF5F02DDDB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,24 +892,26 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="4"/>
-      <c r="L23" s="2" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="2" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="5"/>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K24" s="3"/>
-      <c r="L24" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K25" s="5"/>
-      <c r="L25" s="2" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B8C1FB-2A8E-4637-A911-BF5F02DDDB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343B9E9-46FF-4510-BC9D-07ED7A91DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -448,7 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -766,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +922,7 @@
       <c r="I28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1175,9 +1174,13 @@
       <c r="G39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="3"/>
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1200,10 +1203,10 @@
         <v>50</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="K40" s="3"/>
     </row>
@@ -1226,10 +1229,13 @@
       <c r="G41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="7"/>
+      <c r="I41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -1241,11 +1247,8 @@
       <c r="D42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I42" t="s">
-        <v>34</v>
-      </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1260,10 +1263,10 @@
         <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1278,7 +1281,7 @@
         <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1292,7 +1295,13 @@
       <c r="D45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="I45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1305,12 +1314,12 @@
         <v>50</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
-      </c>
-      <c r="K46" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -1322,10 +1331,13 @@
       <c r="D47" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="I47" t="s">
+        <v>39</v>
+      </c>
       <c r="J47" t="s">
-        <v>68</v>
-      </c>
-      <c r="K47" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -1338,10 +1350,10 @@
         <v>50</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K48" s="5"/>
     </row>
@@ -1356,48 +1368,27 @@
         <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>26</v>
       </c>
-      <c r="I50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>27</v>
       </c>
-      <c r="I51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="I52" t="s">
-        <v>87</v>
-      </c>
-      <c r="J52" t="s">
-        <v>88</v>
-      </c>
-      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C53" t="s">

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343B9E9-46FF-4510-BC9D-07ED7A91DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5428EF05-354C-44FC-BF8E-E5EABA5D6FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5428EF05-354C-44FC-BF8E-E5EABA5D6FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E84F883-1165-47A8-A552-29D3CE41DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E84F883-1165-47A8-A552-29D3CE41DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA70BB5-EB2E-4537-9EC9-BAF11FCF642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Alles</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -765,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,6 +1397,9 @@
       <c r="C53" t="s">
         <v>29</v>
       </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C54" t="s">

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA70BB5-EB2E-4537-9EC9-BAF11FCF642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA56CE2-A324-44E6-9075-7D70B8FE7691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -356,6 +356,27 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>Stange zu Platte horizontal</t>
+  </si>
+  <si>
+    <t>Schelle für schräge</t>
+  </si>
+  <si>
+    <t>Gegenstück p0022</t>
+  </si>
+  <si>
+    <t>Schräge Stange</t>
+  </si>
+  <si>
+    <t>platte unterstützung</t>
+  </si>
+  <si>
+    <t>p0010</t>
+  </si>
+  <si>
+    <t>Steher</t>
   </si>
 </sst>
 </file>
@@ -769,7 +790,7 @@
   <dimension ref="B3:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,6 +1188,12 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" t="s">
         <v>101</v>
@@ -1250,6 +1277,9 @@
       <c r="D42" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
       <c r="J42" t="s">
         <v>86</v>
       </c>
@@ -1379,21 +1409,33 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
       <c r="C52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
       <c r="C53" t="s">
         <v>29</v>
       </c>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA56CE2-A324-44E6-9075-7D70B8FE7691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBBACF7-FFF8-44A7-9681-E7A748523A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Alles</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>Stange zu Platte horizontal</t>
   </si>
   <si>
@@ -377,6 +374,12 @@
   </si>
   <si>
     <t>Steher</t>
+  </si>
+  <si>
+    <t>a0013</t>
+  </si>
+  <si>
+    <t>Zukaufteil-kürzen</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -473,6 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -789,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +806,7 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -976,6 +981,9 @@
         <v>2</v>
       </c>
       <c r="K30" s="5"/>
+      <c r="L30" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1003,6 +1011,9 @@
         <v>3</v>
       </c>
       <c r="K31" s="5"/>
+      <c r="L31" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1029,7 +1040,7 @@
       <c r="J32" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -1158,7 +1169,7 @@
       <c r="J37" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1189,10 +1200,10 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" t="s">
@@ -1278,8 +1289,12 @@
         <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="9"/>
       <c r="J42" t="s">
         <v>86</v>
       </c>
@@ -1410,7 +1425,7 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -1418,7 +1433,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -1426,7 +1441,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -1434,13 +1449,10 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBBACF7-FFF8-44A7-9681-E7A748523A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE3340-6592-4538-9B8C-D5113FA465D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -476,7 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -793,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33:N34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1293,7 @@
       <c r="F42" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="3"/>
       <c r="J42" t="s">
         <v>86</v>
       </c>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE3340-6592-4538-9B8C-D5113FA465D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F260A6F-689F-4592-94E2-1B7B6689C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -127,18 +127,6 @@
     <t>p0024</t>
   </si>
   <si>
-    <t>p0025</t>
-  </si>
-  <si>
-    <t>p0026</t>
-  </si>
-  <si>
-    <t>p0027</t>
-  </si>
-  <si>
-    <t>p0028</t>
-  </si>
-  <si>
     <t>Kurze versteifung</t>
   </si>
   <si>
@@ -220,18 +208,12 @@
     <t>K</t>
   </si>
   <si>
-    <t>Zeichnungen</t>
-  </si>
-  <si>
     <t>p0004_D_L</t>
   </si>
   <si>
     <t>p0004_D_K</t>
   </si>
   <si>
-    <t>Stand</t>
-  </si>
-  <si>
     <t>p0005_D_L</t>
   </si>
   <si>
@@ -380,6 +362,24 @@
   </si>
   <si>
     <t>Zukaufteil-kürzen</t>
+  </si>
+  <si>
+    <t>p0004_D_B</t>
+  </si>
+  <si>
+    <t>p0005_D_B</t>
+  </si>
+  <si>
+    <t>STAND</t>
+  </si>
+  <si>
+    <t>EINZELTEIL ZEICHNUNG</t>
+  </si>
+  <si>
+    <t>BAUGRUPPEN ZEICHNUNG</t>
+  </si>
+  <si>
+    <t>Auflageblech Stange</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +438,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -466,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -476,6 +488,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -790,231 +806,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:M57"/>
+  <dimension ref="B3:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E22" s="5"/>
       <c r="F22" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M24" s="7"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" t="s">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="5"/>
+      <c r="M30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" t="s">
         <v>1</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="5"/>
+      <c r="M31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>8</v>
       </c>
@@ -1022,26 +1079,32 @@
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" t="s">
         <v>8</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>10</v>
       </c>
@@ -1049,26 +1112,28 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
         <v>9</v>
       </c>
-      <c r="J33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1076,23 +1141,25 @@
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -1100,26 +1167,23 @@
         <v>11</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
+        <v>109</v>
+      </c>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -1127,352 +1191,369 @@
         <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>93</v>
-      </c>
-      <c r="F36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>78</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>84</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G42" s="3"/>
       <c r="J42" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s">
-        <v>67</v>
-      </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="K43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="s">
-        <v>68</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K44" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>61</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+      <c r="J50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" t="s">
+        <v>82</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>33</v>
-      </c>
+      <c r="D53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F260A6F-689F-4592-94E2-1B7B6689C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE287F2-94E7-425E-918A-E9A0AC4FEB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -380,6 +380,66 @@
   </si>
   <si>
     <t>Auflageblech Stange</t>
+  </si>
+  <si>
+    <t>Solar auf Davits</t>
+  </si>
+  <si>
+    <t>Solar auf reling</t>
+  </si>
+  <si>
+    <t>a0014</t>
+  </si>
+  <si>
+    <t>a0015</t>
+  </si>
+  <si>
+    <t>a0016</t>
+  </si>
+  <si>
+    <t>a0017</t>
+  </si>
+  <si>
+    <t>a0018</t>
+  </si>
+  <si>
+    <t>a0019</t>
+  </si>
+  <si>
+    <t>a0020</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>s0001</t>
+  </si>
+  <si>
+    <t>s0002</t>
+  </si>
+  <si>
+    <t>s0003</t>
+  </si>
+  <si>
+    <t>p0014_D_L</t>
+  </si>
+  <si>
+    <t>p0015_D_L</t>
+  </si>
+  <si>
+    <t>p0016_D_L</t>
+  </si>
+  <si>
+    <t>p0016_D_K</t>
+  </si>
+  <si>
+    <t>p0017_D_L</t>
+  </si>
+  <si>
+    <t>p0017_D_K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -401,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +510,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -474,24 +540,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -806,50 +932,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
-  <dimension ref="B3:M53"/>
+  <dimension ref="B3:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J43" activeCellId="1" sqref="N52:O52 J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -860,7 +987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -871,7 +998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -881,12 +1008,12 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>47</v>
       </c>
@@ -896,10 +1023,10 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
@@ -909,10 +1036,10 @@
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -922,10 +1049,10 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -935,627 +1062,1054 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E20" s="4"/>
-      <c r="F20" s="2" t="s">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
-      <c r="F21" s="2" t="s">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E22" s="5"/>
-      <c r="F22" s="2" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M24" s="7"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="s">
+      <c r="C26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10" t="s">
+      <c r="F26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="8" t="s">
+      <c r="L26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>109</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>61</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>128</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" t="s">
+        <v>129</v>
+      </c>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="L48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="K49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="L50" t="s">
+        <v>131</v>
+      </c>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="K51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" t="s">
+        <v>132</v>
+      </c>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52" t="s">
+        <v>133</v>
+      </c>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" s="9"/>
+      <c r="M60" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D62" s="14"/>
+      <c r="F62" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="G62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="L62" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D63" s="14"/>
+      <c r="F63" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="G63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="L63" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D64" s="14"/>
+      <c r="F64" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="G64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="L64" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D65" s="14"/>
+      <c r="F65" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="G65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="L65" t="s">
+        <v>5</v>
+      </c>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D66" s="14"/>
+      <c r="F66" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K34" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="G66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="L66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D67" s="14"/>
+      <c r="F67" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="G67" s="14"/>
+      <c r="L67" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="14"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D68" s="14"/>
+      <c r="F68" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="G68" s="14"/>
+      <c r="L68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D69" s="14"/>
+      <c r="F69" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="G69" s="14"/>
+      <c r="L69" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D70" s="14"/>
+      <c r="F70" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K38" t="s">
-        <v>110</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="G70" s="14"/>
+      <c r="L70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="14"/>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D71" s="14"/>
+      <c r="F71" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="L71" t="s">
+        <v>105</v>
+      </c>
+      <c r="M71" s="14"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D72" s="14"/>
+      <c r="F72" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="G72" s="14"/>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="14"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D73" s="14"/>
+      <c r="F73" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="G73" s="14"/>
+      <c r="L73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D74" s="14"/>
+      <c r="F74" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="J42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K42" t="s">
-        <v>77</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="G74" s="14"/>
+      <c r="L74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" t="s">
-        <v>79</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D75" s="14"/>
+      <c r="F75" t="s">
+        <v>117</v>
+      </c>
+      <c r="L75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" t="s">
-        <v>80</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D76" s="14"/>
+      <c r="F76" t="s">
+        <v>118</v>
+      </c>
+      <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="14"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D77" s="14"/>
+      <c r="F77" t="s">
+        <v>119</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="14"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" t="s">
-        <v>62</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D78" s="14"/>
+      <c r="F78" t="s">
+        <v>120</v>
+      </c>
+      <c r="L78" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D79" s="14"/>
+      <c r="F79" t="s">
+        <v>121</v>
+      </c>
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="14"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" t="s">
-        <v>34</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D80" s="14"/>
+      <c r="F80" t="s">
+        <v>122</v>
+      </c>
+      <c r="L80" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="14"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="J50" t="s">
-        <v>36</v>
-      </c>
-      <c r="K50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="J51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" t="s">
-        <v>82</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="3"/>
+      <c r="D81" s="14"/>
+      <c r="F81" t="s">
+        <v>123</v>
+      </c>
+      <c r="L81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" s="14"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D82" s="14"/>
+      <c r="M82" s="14"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D83" s="14"/>
+      <c r="M83" s="14"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D84" s="14"/>
+      <c r="M84" s="14"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D85" s="14"/>
+      <c r="M85" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B59:M59"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE287F2-94E7-425E-918A-E9A0AC4FEB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07B11F-9120-439F-A480-37FC550473D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="136">
   <si>
     <t>Schenkelfeder Links</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -608,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,7 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -934,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J43" activeCellId="1" sqref="N52:O52 J43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,20 +1092,20 @@
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
@@ -1732,6 +1735,9 @@
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>135</v>
+      </c>
       <c r="I52" t="s">
         <v>134</v>
       </c>
@@ -1753,20 +1759,20 @@
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="14"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
@@ -1816,294 +1822,294 @@
       <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="11"/>
       <c r="F62" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="14"/>
-      <c r="J62" s="14"/>
+      <c r="G62" s="11"/>
+      <c r="J62" s="11"/>
       <c r="L62" t="s">
         <v>2</v>
       </c>
-      <c r="M62" s="14"/>
+      <c r="M62" s="11"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="11"/>
       <c r="F63" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="14"/>
-      <c r="J63" s="14"/>
+      <c r="G63" s="11"/>
+      <c r="J63" s="11"/>
       <c r="L63" t="s">
         <v>3</v>
       </c>
-      <c r="M63" s="14"/>
+      <c r="M63" s="11"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="11"/>
       <c r="F64" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="14"/>
-      <c r="J64" s="14"/>
+      <c r="G64" s="11"/>
+      <c r="J64" s="11"/>
       <c r="L64" t="s">
         <v>4</v>
       </c>
-      <c r="M64" s="14"/>
+      <c r="M64" s="11"/>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="11"/>
       <c r="F65" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="14"/>
-      <c r="J65" s="14"/>
+      <c r="G65" s="11"/>
+      <c r="J65" s="11"/>
       <c r="L65" t="s">
         <v>5</v>
       </c>
-      <c r="M65" s="14"/>
+      <c r="M65" s="11"/>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="14"/>
+      <c r="D66" s="11"/>
       <c r="F66" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="14"/>
-      <c r="J66" s="14"/>
+      <c r="G66" s="11"/>
+      <c r="J66" s="11"/>
       <c r="L66" t="s">
         <v>6</v>
       </c>
-      <c r="M66" s="14"/>
+      <c r="M66" s="11"/>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="11"/>
       <c r="F67" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="14"/>
+      <c r="G67" s="11"/>
       <c r="L67" t="s">
         <v>11</v>
       </c>
-      <c r="M67" s="14"/>
+      <c r="M67" s="11"/>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="11"/>
       <c r="F68" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="14"/>
+      <c r="G68" s="11"/>
       <c r="L68" t="s">
         <v>13</v>
       </c>
-      <c r="M68" s="14"/>
+      <c r="M68" s="11"/>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="11"/>
       <c r="F69" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="11"/>
       <c r="L69" t="s">
         <v>14</v>
       </c>
-      <c r="M69" s="14"/>
+      <c r="M69" s="11"/>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="14"/>
+      <c r="D70" s="11"/>
       <c r="F70" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="14"/>
+      <c r="G70" s="11"/>
       <c r="L70" t="s">
         <v>15</v>
       </c>
-      <c r="M70" s="14"/>
+      <c r="M70" s="11"/>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="14"/>
+      <c r="D71" s="11"/>
       <c r="F71" t="s">
         <v>74</v>
       </c>
       <c r="L71" t="s">
         <v>105</v>
       </c>
-      <c r="M71" s="14"/>
+      <c r="M71" s="11"/>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="14"/>
+      <c r="D72" s="11"/>
       <c r="F72" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="14"/>
+      <c r="G72" s="11"/>
       <c r="L72" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="14"/>
+      <c r="M72" s="11"/>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="14"/>
+      <c r="D73" s="11"/>
       <c r="F73" t="s">
         <v>76</v>
       </c>
-      <c r="G73" s="14"/>
+      <c r="G73" s="11"/>
       <c r="L73" t="s">
         <v>17</v>
       </c>
-      <c r="M73" s="14"/>
+      <c r="M73" s="11"/>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="11"/>
       <c r="F74" t="s">
         <v>107</v>
       </c>
-      <c r="G74" s="14"/>
+      <c r="G74" s="11"/>
       <c r="L74" t="s">
         <v>18</v>
       </c>
-      <c r="M74" s="14"/>
+      <c r="M74" s="11"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="14"/>
+      <c r="D75" s="11"/>
       <c r="F75" t="s">
         <v>117</v>
       </c>
       <c r="L75" t="s">
         <v>19</v>
       </c>
-      <c r="M75" s="14"/>
+      <c r="M75" s="11"/>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="14"/>
+      <c r="D76" s="11"/>
       <c r="F76" t="s">
         <v>118</v>
       </c>
       <c r="L76" t="s">
         <v>20</v>
       </c>
-      <c r="M76" s="14"/>
+      <c r="M76" s="11"/>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="11"/>
       <c r="F77" t="s">
         <v>119</v>
       </c>
       <c r="L77" t="s">
         <v>21</v>
       </c>
-      <c r="M77" s="14"/>
+      <c r="M77" s="11"/>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="14"/>
+      <c r="D78" s="11"/>
       <c r="F78" t="s">
         <v>120</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
       </c>
-      <c r="M78" s="14"/>
+      <c r="M78" s="11"/>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="14"/>
+      <c r="D79" s="11"/>
       <c r="F79" t="s">
         <v>121</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
       </c>
-      <c r="M79" s="14"/>
+      <c r="M79" s="11"/>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="14"/>
+      <c r="D80" s="11"/>
       <c r="F80" t="s">
         <v>122</v>
       </c>
       <c r="L80" t="s">
         <v>24</v>
       </c>
-      <c r="M80" s="14"/>
+      <c r="M80" s="11"/>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="14"/>
+      <c r="D81" s="11"/>
       <c r="F81" t="s">
         <v>123</v>
       </c>
       <c r="L81" t="s">
         <v>25</v>
       </c>
-      <c r="M81" s="14"/>
+      <c r="M81" s="11"/>
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D82" s="14"/>
-      <c r="M82" s="14"/>
+      <c r="D82" s="11"/>
+      <c r="M82" s="11"/>
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D83" s="14"/>
-      <c r="M83" s="14"/>
+      <c r="D83" s="11"/>
+      <c r="M83" s="11"/>
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D84" s="14"/>
-      <c r="M84" s="14"/>
+      <c r="D84" s="11"/>
+      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="14"/>
-      <c r="M85" s="14"/>
+      <c r="D85" s="11"/>
+      <c r="M85" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Solarhalterung_Teilenummern.xlsx
+++ b/Solarhalterung_Teilenummern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07B11F-9120-439F-A480-37FC550473D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AF499B-5A34-4322-B86F-C26E4DAD6E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03B2E6AF-1B67-4610-B142-E371E2D12ED6}"/>
   </bookViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501854-A101-4A7C-9F8F-6342FFE547A1}">
   <dimension ref="B3:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
